--- a/Assets/StreamingAssets/Excels/SettingData.xlsx
+++ b/Assets/StreamingAssets/Excels/SettingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4E244-8CD1-4F4A-B23E-F876E0055908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D132B-A6BD-4093-8B14-31B71495A061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isShowLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFullScreen</t>
+    <t>maxEnemyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldOfView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920,1080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,38 +420,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="3"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
